--- a/lab/table_labConversionBase/base10_table.xlsx
+++ b/lab/table_labConversionBase/base10_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanYell\Documents\cis17A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanYell\Documents\cis17A_fall2022\github\lab\table_labConversionBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0143E24E-14CF-4286-AFAD-644FD3B8CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490F3A82-F034-4D0B-BC3C-C1C945C51A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{8F74B5D3-78E4-40E2-ABDB-8A01808DDFC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8F74B5D3-78E4-40E2-ABDB-8A01808DDFC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Base 10</t>
   </si>
@@ -65,13 +65,43 @@
   </si>
   <si>
     <t>Base          16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0 0 1</t>
+  </si>
+  <si>
+    <t>0 0 1 1</t>
+  </si>
+  <si>
+    <t>0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 1</t>
+  </si>
+  <si>
+    <t>0 1 1 1</t>
+  </si>
+  <si>
+    <t>1 0 1</t>
+  </si>
+  <si>
+    <t>0 1 0</t>
+  </si>
+  <si>
+    <t>0 101</t>
+  </si>
+  <si>
+    <t>0 0 0 1</t>
+  </si>
+  <si>
+    <t>0 1 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +137,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -128,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -220,77 +258,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,524 +683,615 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BD6BBC-36A9-46C6-A5DE-D55156AF83E5}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="J4" sqref="J4:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="3"/>
-    <col min="4" max="4" width="12.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" style="3"/>
-    <col min="6" max="8" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.06640625" style="3"/>
-    <col min="10" max="10" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="8" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="66.849999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="66.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A2" s="9"/>
-      <c r="B2" s="12">
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" s="26" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="24">
+        <v>111</v>
+      </c>
+      <c r="H2" s="25">
+        <v>111</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="25">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7">
         <v>127</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D3" s="6">
         <v>1111111</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G3" s="3">
         <v>7</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H3" s="6">
         <v>7</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J3" s="3">
         <v>7</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="22" t="str">
-        <f>IF(F3=J3,"yes","no")</f>
+    <row r="4" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="str">
+        <f>IF(F4=J4,"yes","no")</f>
         <v>yes</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="5">
-        <f>SUM((F2*8^2)+(G2*8^1)+(H2*8^0))</f>
+      <c r="B4" s="5"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="18">
+        <f>SUM((F3*8^2)+(G3*8^1)+(H3*8^0))</f>
         <v>127</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5">
-        <f>SUM((J2*16^1)+(15*16^0))</f>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="18">
+        <f>SUM((J3*16^1)+(15*16^0))</f>
         <v>127</v>
       </c>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9">
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6">
         <v>21</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
         <v>10101</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7">
+      <c r="E7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H7" s="6">
         <v>5</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="I7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K7" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="22" t="str">
-        <f>IF(F6=J6,"yes","no")</f>
+    <row r="8" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="str">
+        <f>IF(F8=J8,"yes","no")</f>
         <v>yes</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="5">
-        <f>SUM((F5*8^2)+(G5*8^1)+(H5*8^0))</f>
+      <c r="B8" s="5"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="18">
+        <f>SUM((F7*8^2)+(G7*8^1)+(H7*8^0))</f>
         <v>21</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="5">
-        <f>SUM((J5*16^1)+(K5*16^0))</f>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="18">
+        <f>SUM((J7*16^1)+(K7*16^0))</f>
         <v>21</v>
       </c>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9">
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="29">
+        <v>111</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="30">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6">
         <v>57</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="C11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12">
         <v>111001</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="18">
+      <c r="E11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="13">
         <v>7</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="7">
-        <v>3</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="I11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3</v>
+      </c>
+      <c r="K11" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="21.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="22" t="str">
-        <f>IF(F9=J9,"yes","no")</f>
-        <v>yes</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="5">
-        <f>SUM((F8*8^2)+(G8*8^1)+(H8*8^0))</f>
-        <v>57</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="5">
-        <f>SUM((J8*16^1)+(K8*16^0))</f>
-        <v>57</v>
-      </c>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9">
-        <v>171</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="17">
-        <v>10101011</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7">
-        <v>5</v>
-      </c>
-      <c r="H11" s="9">
-        <v>3</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="21.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="22" t="str">
+    <row r="12" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="str">
         <f>IF(F12=J12,"yes","no")</f>
         <v>yes</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="5">
+      <c r="B12" s="5"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="18">
         <f>SUM((F11*8^2)+(G11*8^1)+(H11*8^0))</f>
+        <v>57</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="18">
+        <f>SUM((J11*16^1)+(K11*16^0))</f>
+        <v>57</v>
+      </c>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="29">
+        <v>101</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="29">
+        <v>1010</v>
+      </c>
+      <c r="K14" s="30">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6">
         <v>171</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="C15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12">
+        <v>10101011</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="6">
+        <v>3</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="str">
+        <f>IF(F16=J16,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="18">
+        <f>SUM((F15*8^2)+(G15*8^1)+(H15*8^0))</f>
+        <v>171</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="18">
         <f>SUM((10*16^1)+(11*16^0))</f>
         <v>171</v>
       </c>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
